--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-15.14380441283523</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.134646421842628</v>
+        <v>-9.180783697056871</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.718472200238372</v>
+        <v>-1.666587404076612</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.784332491352686</v>
+        <v>-7.712180810391933</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.55647046610461</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.784574519511594</v>
+        <v>-9.828734856996736</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.728291427369667</v>
+        <v>-1.682546921240676</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.633862654792728</v>
+        <v>-7.570430447524565</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.90155612086747</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.33219936277531</v>
+        <v>-10.36604296562117</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.727676089136106</v>
+        <v>-1.679326214741611</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.435448805226369</v>
+        <v>-7.362721062940581</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.23008887149456</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.97808193886618</v>
+        <v>-11.01195172631773</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.728448535003768</v>
+        <v>-1.684379843638518</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.01303874634092</v>
+        <v>-6.949082846959088</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.54369133648425</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.59614337141839</v>
+        <v>-11.62355865356896</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.780647546433729</v>
+        <v>-1.73233694894776</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.763996961685606</v>
+        <v>-6.702528599843703</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.85697605592775</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.39366099902213</v>
+        <v>-12.42391731088936</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.569494886202371</v>
+        <v>-1.52299102650856</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.384542748423859</v>
+        <v>-6.320796325887495</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.18127478609192</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.034332838582</v>
+        <v>-13.06255984350876</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.475819459369822</v>
+        <v>-1.432758875323384</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.724127716178671</v>
+        <v>-5.657370063988711</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.53201660251409</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.64942231838913</v>
+        <v>-13.67762313871021</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.363199470325294</v>
+        <v>-1.314469919148389</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.325715848402106</v>
+        <v>-5.26825373122977</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.913228966025603</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.28316832974572</v>
+        <v>-14.30394581435554</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.288259128859254</v>
+        <v>-1.24666488273109</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.927631288196583</v>
+        <v>-4.864316911653995</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.338438101292155</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.12512123319428</v>
+        <v>-15.14108075035835</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.172627910161129</v>
+        <v>-1.134136539806454</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.365670373321175</v>
+        <v>-4.308836686685241</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.818482550285575</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.90074853044666</v>
+        <v>-15.91363135644292</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9326852759808154</v>
+        <v>-0.889886537991213</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.840878506213427</v>
+        <v>-3.789923263553429</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.361275984763033</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.66417380145055</v>
+        <v>-16.67098179892825</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8403321717352797</v>
+        <v>-0.7933177122306415</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.371728926183015</v>
+        <v>-3.328275573051326</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.988803775615455</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.39137267049138</v>
+        <v>-17.39666196083944</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6595012848853593</v>
+        <v>-0.6147256091666562</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.801703152757104</v>
+        <v>-2.767113288649263</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.708766838036733</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.15951117051829</v>
+        <v>-18.16406729190721</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4742975688863024</v>
+        <v>-0.4266808634509446</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.519014149798554</v>
+        <v>-2.481255948403017</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.526318484082069</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.0268631414798</v>
+        <v>-19.02889244842027</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3115078753522804</v>
+        <v>-0.2643494005163831</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.953924174543974</v>
+        <v>-1.913167835797681</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.444989892832299</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.85832911035214</v>
+        <v>-19.86770319918682</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0706225953673625</v>
+        <v>-0.03014119498074549</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.684000166856108</v>
+        <v>-1.649135364388591</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.460287703254529</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.5975859903102</v>
+        <v>-20.59683972904823</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03593565746144597</v>
+        <v>0.06701678440770366</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.244910514150299</v>
+        <v>-1.21207501862325</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.566028105868723</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.32054295323032</v>
+        <v>-21.3208833531042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3119737705763984</v>
+        <v>0.3493522951895263</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8622748712980126</v>
+        <v>-0.8262055769690574</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.755008218040933</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.95589931783644</v>
+        <v>-21.94800465922288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4611998383663921</v>
+        <v>0.4952136411491965</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6331464792649647</v>
+        <v>-0.6030079981233113</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.007049004974922</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.57452371941084</v>
+        <v>-22.56780736805304</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6474640308956289</v>
+        <v>0.679003388441347</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2953912505541156</v>
+        <v>-0.266889307267678</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.310018463786259</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.02889208953295</v>
+        <v>-23.02332786082521</v>
       </c>
       <c r="F22" t="n">
-        <v>0.816027429982852</v>
+        <v>0.8449745115659084</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1773903250416386</v>
+        <v>-0.1414519537411005</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.648370041802233</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.4694088032485</v>
+        <v>-23.45787448444494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8984958455828845</v>
+        <v>0.9277833270398258</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0327596555490907</v>
+        <v>0.01030092849734634</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.004551176907519</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.95822302214718</v>
+        <v>-23.94791937981075</v>
       </c>
       <c r="F24" t="n">
-        <v>1.042354069207771</v>
+        <v>1.067137798487158</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07563694735574357</v>
+        <v>-0.03969857605520552</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.367753200567252</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.20767066819059</v>
+        <v>-24.19621490320408</v>
       </c>
       <c r="F25" t="n">
-        <v>1.096621664486725</v>
+        <v>1.120069978876256</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1183909807586368</v>
+        <v>0.1620276261301097</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.72365278205816</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.47483219997886</v>
+        <v>-24.46035211303591</v>
       </c>
       <c r="F26" t="n">
-        <v>1.233056552400353</v>
+        <v>1.254685036694884</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01628411089601515</v>
+        <v>0.06085030976925068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.05690304945927</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.52747634970543</v>
+        <v>-24.52026249083965</v>
       </c>
       <c r="F27" t="n">
-        <v>1.20133390261485</v>
+        <v>1.222674356246864</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1832294921090484</v>
+        <v>-0.1340940795440505</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.36034585040449</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.60952581161453</v>
+        <v>-24.59907815394683</v>
       </c>
       <c r="F28" t="n">
-        <v>1.129967759824601</v>
+        <v>1.151753351753234</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5353338847344293</v>
+        <v>-0.4767458295177051</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.62476718676939</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.42068243542548</v>
+        <v>-24.40872916293098</v>
       </c>
       <c r="F29" t="n">
-        <v>1.145966553897191</v>
+        <v>1.172648667088628</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5862498504859019</v>
+        <v>-0.531812055270005</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.84168592383592</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.16080022401721</v>
+        <v>-24.14929208981934</v>
       </c>
       <c r="F30" t="n">
-        <v>1.034393949080001</v>
+        <v>1.065684552871726</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9019969181198095</v>
+        <v>-0.8412093560256754</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.00915871791007</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.93794304504535</v>
+        <v>-23.92525660359172</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9654498823154717</v>
+        <v>0.9959418556338516</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.118988745418577</v>
+        <v>-1.063359550644083</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.11927676292957</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.59263355759483</v>
+        <v>-23.58268340743512</v>
       </c>
       <c r="F32" t="n">
-        <v>0.942446706222559</v>
+        <v>0.975229832538241</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.364639623637884</v>
+        <v>-1.305933737695584</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.17106291742492</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.25973557323826</v>
+        <v>-23.25265263740089</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9068749194015893</v>
+        <v>0.9423026908912999</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.643872258646217</v>
+        <v>-1.583503650243018</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.16655260087956</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.80801184829019</v>
+        <v>-22.79649062178946</v>
       </c>
       <c r="F34" t="n">
-        <v>0.843128496865225</v>
+        <v>0.8787657452004033</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.884692077116926</v>
+        <v>-1.832047927390346</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.10698170113407</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.44868050449617</v>
+        <v>-22.44223909149804</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7631999880164874</v>
+        <v>0.805605956920838</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.165377957740692</v>
+        <v>-2.120078589908319</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.00001720504839</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.87662542412979</v>
+        <v>-21.87000071889188</v>
       </c>
       <c r="F36" t="n">
-        <v>0.811013077994471</v>
+        <v>0.8536416160471311</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.465453538873053</v>
+        <v>-2.426084984227983</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.85456782845964</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.42725831369323</v>
+        <v>-21.41606439476355</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8291459174302616</v>
+        <v>0.8728218397102597</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.648654132537326</v>
+        <v>-2.611105407987256</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.67424846568896</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.9449902462154</v>
+        <v>-20.94059123246059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9241305745469842</v>
+        <v>0.9654891592239968</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.779825914708579</v>
+        <v>-2.741308359748222</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.47091114713625</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.45741979608669</v>
+        <v>-20.45939673381579</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9436119211754725</v>
+        <v>0.9851930750007946</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.838453246833829</v>
+        <v>-2.801428214397427</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.25414288180956</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.79915190150754</v>
+        <v>-19.7988245939365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9634205753750041</v>
+        <v>1.004818436960542</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.958431110075407</v>
+        <v>-2.922610569500444</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.02989897594893</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.26198780821436</v>
+        <v>-19.25550711830771</v>
       </c>
       <c r="F41" t="n">
-        <v>1.036567271351728</v>
+        <v>1.081054916407913</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.114753206005616</v>
+        <v>-3.081577310604682</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.813153239593792</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.50366853531875</v>
+        <v>-18.50040855191116</v>
       </c>
       <c r="F42" t="n">
-        <v>1.012490526425794</v>
+        <v>1.055249987506871</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.330331064597477</v>
+        <v>-3.299642706736472</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.609409853203521</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98382555868517</v>
+        <v>-17.98102380587704</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1167576262573</v>
+        <v>1.157932918694528</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.368063081387332</v>
+        <v>-3.337296169709275</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.422932590117993</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.42445691977242</v>
+        <v>-17.42210030526091</v>
       </c>
       <c r="F44" t="n">
-        <v>1.069559874512877</v>
+        <v>1.109465213574458</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.517184410754592</v>
+        <v>-3.485933083871392</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.259235980036303</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.7768330674036</v>
+        <v>-16.77295774576245</v>
       </c>
       <c r="F45" t="n">
-        <v>1.08710356032079</v>
+        <v>1.126747053325537</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.694624391168505</v>
+        <v>-3.66697344756678</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.118761635574602</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.30065292074718</v>
+        <v>-16.29360926181834</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9143244397185314</v>
+        <v>0.9465445970120192</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.856995131011592</v>
+        <v>-3.836008169556305</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.001639184942658</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.70571249501347</v>
+        <v>-15.70670751002944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9913202727307223</v>
+        <v>1.024993675639642</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.833219509051017</v>
+        <v>-3.809234410244975</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.910510750678302</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.06349576371828</v>
+        <v>-15.06226508725116</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9728863103295721</v>
+        <v>1.009348373743779</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.978125116903241</v>
+        <v>-3.948732897023566</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.837894621575035</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.55677127453211</v>
+        <v>-14.55818524323902</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8921460787046473</v>
+        <v>0.9227951596571281</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.085193969542877</v>
+        <v>-4.062046778118705</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.782094991317237</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.03894451253616</v>
+        <v>-14.04661660200142</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8850238659587484</v>
+        <v>0.9125569788348983</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162713494668737</v>
+        <v>-4.135874273843199</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.739603077432747</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.5633142425991</v>
+        <v>-13.58202314335992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9965702861702546</v>
+        <v>1.028541689709749</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.257056628946216</v>
+        <v>-4.226931240107404</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.70412889789389</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.93017047717322</v>
+        <v>-12.94395667206556</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8862938193343959</v>
+        <v>0.9121773020524883</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.362619866759053</v>
+        <v>-4.328736987004666</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.676731987781205</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.52790947236119</v>
+        <v>-12.54714206523569</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8977626766237479</v>
+        <v>0.921891790761049</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.554304272664764</v>
+        <v>-4.521730623194549</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.655193708621102</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.90010736649474</v>
+        <v>-11.91399829980981</v>
       </c>
       <c r="F54" t="n">
-        <v>0.873476454852346</v>
+        <v>0.8981554457089996</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.731888268409937</v>
+        <v>-4.698568357677743</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.634290051534867</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.51786449272771</v>
+        <v>-11.53408585594861</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8343173770527433</v>
+        <v>0.8626098434937134</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.948448049714927</v>
+        <v>-4.911043340496116</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.614631001224051</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.14077998628031</v>
+        <v>-11.16972706786337</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7587616973531423</v>
+        <v>0.7868839638571699</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.15228211265776</v>
+        <v>-5.115597480095244</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.594338668840736</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.58577108421386</v>
+        <v>-10.61674747273739</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7395945659928552</v>
+        <v>0.7684892783645447</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.231608375575779</v>
+        <v>-5.193745435757507</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.570950954059697</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.35208657079189</v>
+        <v>-10.38984477218743</v>
       </c>
       <c r="F58" t="n">
-        <v>0.657924780866168</v>
+        <v>0.6899092767085048</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.377836306015017</v>
+        <v>-5.345786348658471</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.549696429614391</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.844707466463642</v>
+        <v>-9.881470652843209</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6851044015655914</v>
+        <v>0.7142085907827483</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.594278256594432</v>
+        <v>-5.563328052676592</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.528131656110222</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.713941545680482</v>
+        <v>-9.761309497361847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6683200693224985</v>
+        <v>0.6935751215041881</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.653507834650402</v>
+        <v>-5.626406767768028</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.507602129837712</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.339017269201973</v>
+        <v>-9.393101572241143</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7030146718530726</v>
+        <v>0.727942416463719</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.662436785188459</v>
+        <v>-5.629431089724467</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.490887609561543</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.067653108201517</v>
+        <v>-9.129946285122449</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6641305324131462</v>
+        <v>0.6879061543737207</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.751124044638311</v>
+        <v>-5.711807859204607</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.477677721558649</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.744247043405199</v>
+        <v>-8.7994703767916</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6243037471686155</v>
+        <v>0.6464952004853411</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.746842861609066</v>
+        <v>-5.718930071950506</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.470909875708015</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.439654617792442</v>
+        <v>-8.500193426132583</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5216339082837996</v>
+        <v>0.5453964379415325</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.67762385648486</v>
+        <v>-5.654345742032271</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.473677528326437</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.326510936634246</v>
+        <v>-8.387259221819855</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3806298066784099</v>
+        <v>0.3963929392998481</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.694905696235939</v>
+        <v>-5.662188031434465</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.481339443883636</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.127926887130945</v>
+        <v>-8.188295495534144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3370324382154621</v>
+        <v>0.3568672770206771</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.679142563614501</v>
+        <v>-5.643086361588387</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.496838944407109</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.999648503887713</v>
+        <v>-8.065686079421379</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2437235958624804</v>
+        <v>0.2640166652671558</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.632272119441121</v>
+        <v>-5.596805071042885</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.520086591655536</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.854978557486639</v>
+        <v>-7.918738072325845</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1889454007726985</v>
+        <v>0.2105607927643883</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.580649169336196</v>
+        <v>-5.547316166301161</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.54828379845998</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.786126136842002</v>
+        <v>-7.844203592247899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1831847875223391</v>
+        <v>0.2075495631107913</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.493663909255767</v>
+        <v>-5.462373305464042</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.585752850985234</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.794570672174915</v>
+        <v>-7.852870696729122</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07800122649191184</v>
+        <v>0.1049451857401841</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.393128115734153</v>
+        <v>-5.363356219072068</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.630600063051464</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.865478584365704</v>
+        <v>-7.927234976870126</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08044948712331461</v>
+        <v>0.1090168919239609</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.22554663936006</v>
+        <v>-5.199663156641967</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.680511061023205</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.878583979510272</v>
+        <v>-7.938612188039586</v>
       </c>
       <c r="F72" t="n">
-        <v>0.003217992659972533</v>
+        <v>0.02707216843759743</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.14142859360197</v>
+        <v>-5.112782634984272</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.737850407573719</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.08959262441037</v>
+        <v>-8.147067833885549</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03316551693718421</v>
+        <v>-0.009180418131142053</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.873245862192053</v>
+        <v>-4.844599903574356</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.80205217917535</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.219612283931552</v>
+        <v>-8.28058313826547</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0885066810491603</v>
+        <v>-0.06956211883718268</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.74230974147195</v>
+        <v>-4.718599581025584</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.873320502203041</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.559567019519811</v>
+        <v>-8.618521659216103</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1687755897717828</v>
+        <v>-0.1427742763281148</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.498531062559011</v>
+        <v>-4.47668000911617</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.955554170823447</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.818441123609261</v>
+        <v>-8.875458102484979</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1607761927354882</v>
+        <v>-0.1373802475573237</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.210762246097872</v>
+        <v>-4.200537157578484</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.043679123803296</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.334814639989778</v>
+        <v>-9.390168896404596</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2331111659360247</v>
+        <v>-0.2110244510420329</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.984985483592306</v>
+        <v>-3.963134430149465</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.138941227867909</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.789353210048825</v>
+        <v>-9.847483034666087</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1805062931179694</v>
+        <v>-0.155290517844805</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.893260809883173</v>
+        <v>-3.869354264894181</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.241530760388269</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.23222653827589</v>
+        <v>-10.29395674617463</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2488481139517795</v>
+        <v>-0.2254652610764567</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.745016664806309</v>
+        <v>-3.720403135463864</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.348738120593273</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.82700985637551</v>
+        <v>-10.8823248358818</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.300824556233432</v>
+        <v>-0.2725059051867785</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.416268940450567</v>
+        <v>-3.391341195839921</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.463117881574915</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.50852968080156</v>
+        <v>-11.56161896882476</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3177136268992586</v>
+        <v>-0.2902459755373173</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.257485491586114</v>
+        <v>-3.236001022622841</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.584981072538469</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.35172635302008</v>
+        <v>-12.4043181335353</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3830834949879968</v>
+        <v>-0.3559431511970987</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.919023278521811</v>
+        <v>-2.898861132145553</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.709907982978452</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.26771622903861</v>
+        <v>-13.31670762627235</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3605909187059115</v>
+        <v>-0.3313819910660206</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.771250456347249</v>
+        <v>-2.744437420127394</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.842053040638925</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.21497052424317</v>
+        <v>-14.25486277100191</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4157618828809451</v>
+        <v>-0.3882549546104787</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.496246635156793</v>
+        <v>-2.471227244426254</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.982433928852142</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.43853787092236</v>
+        <v>-15.48136279351765</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4658268489477056</v>
+        <v>-0.4325985843354048</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.298068447041585</v>
+        <v>-2.275549686153817</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.1297493442098</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.50215655378419</v>
+        <v>-16.5448636456539</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5613351981780973</v>
+        <v>-0.5279367336288541</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.055598998412818</v>
+        <v>-2.025918747870626</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.29022397982237</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.67362962745615</v>
+        <v>-17.70946326033396</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.492286392990834</v>
+        <v>-0.4600269587888209</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.997744112155231</v>
+        <v>-1.976704781488577</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.46040613567782</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.04765371839246</v>
+        <v>-19.07921926054387</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6470243202771944</v>
+        <v>-0.614686332258131</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.96693792356865</v>
+        <v>-1.941944717443795</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.64014181478426</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.57845813585844</v>
+        <v>-20.60053175844959</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6301614342170512</v>
+        <v>-0.5989362919395346</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.953780159212715</v>
+        <v>-1.929101168356061</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.83211667899653</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.21402716066391</v>
+        <v>-22.23455589151974</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6677232510699633</v>
+        <v>-0.6351103246912236</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.964843155113974</v>
+        <v>-1.93622338110196</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.03602748745326</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.92489001911215</v>
+        <v>-23.9448295963401</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8124848435909284</v>
+        <v>-0.7851088383488792</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.005966078339835</v>
+        <v>-1.97649530464311</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.25274101156677</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.661924390941</v>
+        <v>-25.68403729044067</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8598135183637682</v>
+        <v>-0.8305522215125104</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.067499901695947</v>
+        <v>-2.030867638344798</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.48490346919054</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.68365088806318</v>
+        <v>-27.7048996955753</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.03322106950243</v>
+        <v>-1.002375604007323</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.262064614226839</v>
+        <v>-2.230197949110078</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.7231598746016</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.73711312727371</v>
+        <v>-29.76304897920317</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.060204305659227</v>
+        <v>-1.027840133034481</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.329306681621944</v>
+        <v>-2.304614598462448</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.97026003072925</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.93587374342171</v>
+        <v>-31.95396730594897</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.295250418576736</v>
+        <v>-1.258932370493787</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.541703110623266</v>
+        <v>-2.517207412006397</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.22571337202183</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.19898302803679</v>
+        <v>-34.22295503453999</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.424680924470039</v>
+        <v>-1.390601660173026</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.75934955306412</v>
+        <v>-2.7329554705352</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.48227983695464</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.41272123863573</v>
+        <v>-36.4352399995235</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.600497459331579</v>
+        <v>-1.572113346770717</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.842734429863073</v>
+        <v>-2.811090333894621</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.74630425943649</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.74760252742915</v>
+        <v>-38.76828836591908</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.869976328722826</v>
+        <v>-1.841395831619338</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.103127241082163</v>
+        <v>-3.071208206754035</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.00721790396429</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.05612901060218</v>
+        <v>-41.08222197016575</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.885988215098257</v>
+        <v>-1.860222563105741</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.35303311772503</v>
+        <v>-3.335005016711973</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.26709715239419</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.38722662387435</v>
+        <v>-43.412154368485</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.222080721348207</v>
+        <v>-2.196262700144323</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.409906081269488</v>
+        <v>-3.381600522525677</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.51155012526186</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.72388846585426</v>
+        <v>-45.74406370453335</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.263282198391119</v>
+        <v>-2.240252837692523</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.673558875896168</v>
+        <v>-3.65097465349419</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.76063159353772</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.26358574030365</v>
+        <v>-48.29191748365314</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.532302837182907</v>
+        <v>-2.516578981469993</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.706800232811311</v>
+        <v>-3.685472871482139</v>
       </c>
     </row>
   </sheetData>
